--- a/results/I3_N5_M2_T30_C150_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1393.45808500684</v>
+        <v>206.9522812893066</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.70808500682834</v>
+        <v>32.95228128930657</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.686004039859049</v>
+        <v>3.793560860194548</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.686004039859049</v>
+        <v>3.793560860194548</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0700000000118</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6799999999999</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,31 +620,9 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -918,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.695361957914272</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.60181147454999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.2163689211052</v>
+        <v>22.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -958,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.72026482307932</v>
+        <v>23.91429431698742</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.95831999634839</v>
+        <v>27.23104729676617</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,37 +1038,9 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1248,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.01499999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>121.83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>105.775</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>117.255</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -1347,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>119.605</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>197.7200000000005</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>193.6700000000005</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>185.9750000000005</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>197.5100000000005</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>195.1700000000005</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -1413,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>204.6250000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>199.3150000000007</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>199.9050000000007</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -1446,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>201.0650000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1457,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>207.0800000000006</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>204.6250000000007</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1479,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>199.3150000000007</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>199.9050000000007</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>201.0650000000007</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -1512,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>207.0800000000006</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -1523,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>197.7200000000005</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
@@ -1534,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>193.6700000000005</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>185.9750000000005</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
@@ -1556,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.5100000000005</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
@@ -1567,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>195.1700000000005</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54.62500000000065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>49.31500000000065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>49.90500000000065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1647,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>51.06500000000065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>57.08000000000064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1669,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>47.72000000000051</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>43.67000000000051</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>35.97500000000052</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>47.5100000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>45.17000000000051</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1771,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1782,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1793,7 +1743,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1804,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1815,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1826,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1837,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1870,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1881,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1892,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1903,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1914,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1980,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1991,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2002,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2013,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2024,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2101,75 +2051,9 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
